--- a/Documents/Automation Exercise Website API Test Cases.xlsx
+++ b/Documents/Automation Exercise Website API Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="200">
   <si>
     <t>ID</t>
   </si>
@@ -53,12 +53,154 @@
     <t>TC_API08_001</t>
   </si>
   <si>
+    <t>Verify login without email parameter</t>
+  </si>
+  <si>
+    <t>/api/verifyLogin</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{ "password": "Abc@1234" }</t>
+  </si>
+  <si>
+    <t>{"responseCode": 400, "message": "Bad request, email or password parameter is missing in POST request."}</t>
+  </si>
+  <si>
     <t>NotTested</t>
   </si>
   <si>
+    <t>Critical</t>
+  </si>
+  <si>
     <t>Muhammad EmadEl-dien Ali</t>
   </si>
   <si>
+    <t>TC_API08_002</t>
+  </si>
+  <si>
+    <t>Verify login without password parameter</t>
+  </si>
+  <si>
+    <t>{ "email": "test1233@example.com" }</t>
+  </si>
+  <si>
+    <t>TC_API08_003</t>
+  </si>
+  <si>
+    <t>Verify login without both email &amp; password</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>TC_API08_004</t>
+  </si>
+  <si>
+    <t>Verify login with empty email value</t>
+  </si>
+  <si>
+    <t>{ "email": "", "password": "Abc@1234" }</t>
+  </si>
+  <si>
+    <t>{"responseCode": 404, "message": "User not found!"}</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>TC_API08_005</t>
+  </si>
+  <si>
+    <t>Verify login with empty password value</t>
+  </si>
+  <si>
+    <t>{ "email": "test1233@example.com", "password": "" }</t>
+  </si>
+  <si>
+    <t>TC_API08_006</t>
+  </si>
+  <si>
+    <t>Verify login with non-existing or invalid email</t>
+  </si>
+  <si>
+    <t>{ "email": "notfound@example", "password": "12345" }</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>TC_API08_007</t>
+  </si>
+  <si>
+    <t>Verify login with correct email and wrong password</t>
+  </si>
+  <si>
+    <t>{ "email": "test1233@example.com", "password": "123456" }</t>
+  </si>
+  <si>
+    <t>TC_API08_008</t>
+  </si>
+  <si>
+    <t>Verify login with correct credentials</t>
+  </si>
+  <si>
+    <t>{ "email": "test1233@example.com", "password": "Abc@1234" }</t>
+  </si>
+  <si>
+    <t>{"responseCode": 200, "message": "User exists!"}</t>
+  </si>
+  <si>
+    <t>TC_API08_009</t>
+  </si>
+  <si>
+    <t>Verify login with uppercase letters in email</t>
+  </si>
+  <si>
+    <t>{ "email": "TEST1233@example.com", "password": "Abc@1234" }</t>
+  </si>
+  <si>
+    <t>TC_API08_010</t>
+  </si>
+  <si>
+    <t>Verify login with GET method instead of POST</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Send GET request</t>
+  </si>
+  <si>
+    <t>{"responseCode": 405, "message": "This request method is not supported."}</t>
+  </si>
+  <si>
+    <t>TC_API08_011</t>
+  </si>
+  <si>
+    <t>Verify login with extra unexpected parameter</t>
+  </si>
+  <si>
+    <t>{ "email": "test1233@example.com", "password": "Abc@1234", "name": "John Smith" }</t>
+  </si>
+  <si>
+    <t>Should ignore extra
+{"responseCode": 200, "message": "User exists!"}</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>TC_API08_012</t>
+  </si>
+  <si>
+    <t>Verify login with duplicate parameters</t>
+  </si>
+  <si>
+    <t>{ "email": "test1233@example.com", "email": "test1233@example.com", "password": "Abc@1234" }</t>
+  </si>
+  <si>
     <t>TC_API11_001</t>
   </si>
   <si>
@@ -68,18 +210,12 @@
     <t>/api/createAccount</t>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
     <t>{ "name":"John Smith","email":"test1233@example.com","password":"Abc@1234","title":"Mr","birth_date":"12","birth_month":"5","birth_year":"1995","firstname":"John","lastname":"Smith","company":"TechCorp","address1":"123 Main St","address2":"Apt 4","country":"USA","zipcode":"12345","state":"California","city":"Los Angeles","mobile_number":"0123456789" }</t>
   </si>
   <si>
     <t>{"responseCode": 201, "message": "User created!"}</t>
   </si>
   <si>
-    <t>Critical</t>
-  </si>
-  <si>
     <t>TC_API11_002</t>
   </si>
   <si>
@@ -92,9 +228,6 @@
     <t>{"responseCode": 409, "message": "Email already exists!"}</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>TC_API11_003</t>
   </si>
   <si>
@@ -104,9 +237,6 @@
     <t>Omit "title", "address2", "company", "birth_date", "birth_month", and "birth_year"</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t>TC_API11_004</t>
   </si>
   <si>
@@ -275,9 +405,6 @@
     <t>{"responseCode": 400, "message": "Invalid birth date."}</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>TC_API11_018</t>
   </si>
   <si>
@@ -381,12 +508,6 @@
   </si>
   <si>
     <t>Verify unsupported method returns 405</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>Send GET request</t>
   </si>
   <si>
     <r>
@@ -610,7 +731,7 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -624,9 +745,6 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -635,6 +753,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,7 +860,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:K4" displayName="API08_LoginWithoutEmail_Table" name="API08_LoginWithoutEmail_Table" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:K15" displayName="API08_LoginWithoutEmail_Table" name="API08_LoginWithoutEmail_Table" id="1">
   <tableColumns count="11">
     <tableColumn name="ID" id="1"/>
     <tableColumn name="Test Scenario" id="2"/>
@@ -758,7 +879,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A27:K54" displayName="API11_CreateAccount_Table" name="API11_CreateAccount_Table" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:K45" displayName="API11_CreateAccount_Table" name="API11_CreateAccount_Table" id="2">
   <tableColumns count="11">
     <tableColumn name="ID" id="1"/>
     <tableColumn name="Test Scenario" id="2"/>
@@ -777,7 +898,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A57:K72" displayName="API13_UpdateAccount_Table" name="API13_UpdateAccount_Table" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A48:K63" displayName="API13_UpdateAccount_Table" name="API13_UpdateAccount_Table" id="3">
   <tableColumns count="11">
     <tableColumn name="ID" id="1"/>
     <tableColumn name="Test Scenario" id="2"/>
@@ -1061,53 +1182,373 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="D5" s="1"/>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="6"/>
     </row>
     <row r="6">
-      <c r="D6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="6"/>
     </row>
     <row r="7">
-      <c r="D7" s="1"/>
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="6"/>
     </row>
     <row r="8">
-      <c r="D8" s="1"/>
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="6"/>
     </row>
     <row r="9">
-      <c r="D9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="6"/>
     </row>
     <row r="10">
-      <c r="D10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="6"/>
     </row>
     <row r="11">
-      <c r="D11" s="1"/>
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="6"/>
     </row>
     <row r="12">
-      <c r="D12" s="1"/>
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="6"/>
     </row>
     <row r="13">
-      <c r="D13" s="1"/>
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="6"/>
     </row>
     <row r="14">
-      <c r="D14" s="1"/>
+      <c r="A14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="6"/>
     </row>
     <row r="15">
-      <c r="D15" s="1"/>
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="6"/>
     </row>
     <row r="16">
       <c r="D16" s="1"/>
@@ -1116,1409 +1557,1409 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18">
-      <c r="D18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
-      <c r="D19" s="1"/>
+      <c r="A19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="9"/>
     </row>
     <row r="20">
-      <c r="D20" s="1"/>
+      <c r="A20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="9"/>
     </row>
     <row r="21">
-      <c r="D21" s="1"/>
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="9"/>
     </row>
     <row r="22">
-      <c r="D22" s="1"/>
+      <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="9"/>
     </row>
     <row r="23">
-      <c r="D23" s="1"/>
+      <c r="A23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="9"/>
     </row>
     <row r="24">
-      <c r="D24" s="1"/>
+      <c r="A24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="9"/>
     </row>
     <row r="25">
-      <c r="D25" s="1"/>
+      <c r="A25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="9"/>
     </row>
     <row r="26">
-      <c r="D26" s="1"/>
+      <c r="A26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="9"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="9"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K28" s="9"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K29" s="9"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K30" s="9"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K31" s="9"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K32" s="9"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K33" s="9"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K34" s="9"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K35" s="9"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K36" s="9"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K37" s="9"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K38" s="9"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>17</v>
+      <c r="D39" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K39" s="9"/>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K40" s="9"/>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K41" s="9"/>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="F52" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="I52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="F53" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="I53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="I54" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="I55" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="I56" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="9"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" s="9"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="9"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F52" s="4" t="s">
+      <c r="I57" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="K57" s="6"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>126</v>
+        <v>191</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>130</v>
+        <v>167</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K58" s="6"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>132</v>
+        <v>192</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>134</v>
+        <v>167</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K59" s="6"/>
     </row>
-    <row r="60">
-      <c r="A60" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="8" t="s">
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>29</v>
+      <c r="I60" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K60" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="K60" s="6"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>139</v>
+        <v>194</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>128</v>
+        <v>167</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K61" s="6"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>142</v>
+        <v>195</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>36</v>
+        <v>167</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K62" s="6"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>85</v>
+        <v>167</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K63" s="6"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K64" s="6"/>
+      <c r="D64" s="1"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K65" s="6"/>
+      <c r="D65" s="1"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K66" s="6"/>
+      <c r="D66" s="1"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" s="6"/>
+      <c r="D67" s="1"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K68" s="6"/>
+      <c r="D68" s="1"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" s="6"/>
+      <c r="D69" s="1"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K70" s="6"/>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G71" s="6"/>
-      <c r="H71" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K71" s="6"/>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K72" s="6"/>
+      <c r="D72" s="1"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="D73" s="1"/>
@@ -5310,39 +5751,12 @@
     <row r="1002" ht="15.75" customHeight="1">
       <c r="D1002" s="1"/>
     </row>
-    <row r="1003" ht="15.75" customHeight="1">
-      <c r="D1003" s="1"/>
-    </row>
-    <row r="1004" ht="15.75" customHeight="1">
-      <c r="D1004" s="1"/>
-    </row>
-    <row r="1005" ht="15.75" customHeight="1">
-      <c r="D1005" s="1"/>
-    </row>
-    <row r="1006" ht="15.75" customHeight="1">
-      <c r="D1006" s="1"/>
-    </row>
-    <row r="1007" ht="15.75" customHeight="1">
-      <c r="D1007" s="1"/>
-    </row>
-    <row r="1008" ht="15.75" customHeight="1">
-      <c r="D1008" s="1"/>
-    </row>
-    <row r="1009" ht="15.75" customHeight="1">
-      <c r="D1009" s="1"/>
-    </row>
-    <row r="1010" ht="15.75" customHeight="1">
-      <c r="D1010" s="1"/>
-    </row>
-    <row r="1011" ht="15.75" customHeight="1">
-      <c r="D1011" s="1"/>
-    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I4 I28:I54 I58:I72">
+    <dataValidation type="list" allowBlank="1" sqref="I4:I15 I19:I45 I49:I63">
       <formula1>"Critical,High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H4 H28:H54 H58:H72">
+    <dataValidation type="list" allowBlank="1" sqref="H4:H15 H19:H45 H49:H63">
       <formula1>"NotTested,Pass,Fail,Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/Automation Exercise Website API Test Cases.xlsx
+++ b/Documents/Automation Exercise Website API Test Cases.xlsx
@@ -5,8 +5,8 @@
   <sheets>
     <sheet state="visible" name="Muhammad Emad" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Ali Ashour" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Moaz Elsayed" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Nour Ayman" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Nour Ayman" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Moaz Elsayed" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Ahmed Kamal" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="415">
   <si>
     <t>ID</t>
   </si>
@@ -586,46 +586,46 @@
     <t>{"responseCode": 400, "message": "Bad request, password parameter is missing in PUT request."}</t>
   </si>
   <si>
-    <t>TC_API13_017</t>
-  </si>
-  <si>
-    <t>TC_API13_018</t>
+    <t>TC_API13_006</t>
+  </si>
+  <si>
+    <t>TC_API13_007</t>
   </si>
   <si>
     <t>"name": ""</t>
   </si>
   <si>
-    <t>TC_API13_020</t>
+    <t>TC_API13_008</t>
   </si>
   <si>
     <t>Response time &lt; 1000ms, "User updated!"</t>
   </si>
   <si>
-    <t>TC_API13_021</t>
+    <t>TC_API13_009</t>
   </si>
   <si>
     <t>Verify invalid zipcode format rejected</t>
   </si>
   <si>
-    <t>TC_API13_022</t>
-  </si>
-  <si>
-    <t>TC_API13_023</t>
-  </si>
-  <si>
-    <t>TC_API13_024</t>
-  </si>
-  <si>
-    <t>TC_API13_025</t>
-  </si>
-  <si>
-    <t>TC_API13_026</t>
+    <t>TC_API13_010</t>
+  </si>
+  <si>
+    <t>TC_API13_011</t>
+  </si>
+  <si>
+    <t>TC_API13_012</t>
+  </si>
+  <si>
+    <t>TC_API13_013</t>
+  </si>
+  <si>
+    <t>TC_API13_014</t>
   </si>
   <si>
     <t>Verify same email with different casing accepted</t>
   </si>
   <si>
-    <t>TC_API13_027</t>
+    <t>TC_API13_015</t>
   </si>
   <si>
     <t>Send POST request</t>
@@ -649,12 +649,669 @@
 }</t>
     </r>
   </si>
+  <si>
+    <t>TC_API01_001</t>
+  </si>
+  <si>
+    <t>Verify successful retrieval of all products</t>
+  </si>
+  <si>
+    <t>/api/productsList</t>
+  </si>
+  <si>
+    <t>{"responseCode":200,"products":[...]}</t>
+  </si>
+  <si>
+    <t>Ali Ashour</t>
+  </si>
+  <si>
+    <t>TC_API01_002</t>
+  </si>
+  <si>
+    <t>Verify response structure</t>
+  </si>
+  <si>
+    <t>Response matches expected JSON schema</t>
+  </si>
+  <si>
+    <t>TC_API01_003</t>
+  </si>
+  <si>
+    <t>Verify request without authentication works</t>
+  </si>
+  <si>
+    <t>Response code=200 and data returned successfully</t>
+  </si>
+  <si>
+    <t>TC_API01_004</t>
+  </si>
+  <si>
+    <t>Verify response time</t>
+  </si>
+  <si>
+    <t>Response time ≤ 2 seconds</t>
+  </si>
+  <si>
+    <t>TC_API01_005</t>
+  </si>
+  <si>
+    <t>Verify invalid method returns error</t>
+  </si>
+  <si>
+    <t>POST/PUT</t>
+  </si>
+  <si>
+    <t>{"responseCode":405,"message":"This request method is not supported."}</t>
+  </si>
+  <si>
+    <t>TC_API04_001</t>
+  </si>
+  <si>
+    <t>Verify PUT method not supported</t>
+  </si>
+  <si>
+    <t>/api/brandsList</t>
+  </si>
+  <si>
+    <t>TC_API04_002</t>
+  </si>
+  <si>
+    <t>Verify GET method works for same endpoint</t>
+  </si>
+  <si>
+    <t>{"responseCode":200,"brands":[...]}</t>
+  </si>
+  <si>
+    <t>TC_API04_003</t>
+  </si>
+  <si>
+    <t>Verify invalid URL returns error</t>
+  </si>
+  <si>
+    <t>/api/brandsListt</t>
+  </si>
+  <si>
+    <t>{"responseCode":404,"message":"Not Found"}</t>
+  </si>
+  <si>
+    <t>TC_API05_001</t>
+  </si>
+  <si>
+    <t>Verify successful search with valid keyword</t>
+  </si>
+  <si>
+    <t>/api/searchProduct</t>
+  </si>
+  <si>
+    <t>{"search_product":"top"}</t>
+  </si>
+  <si>
+    <t>TC_API05_002</t>
+  </si>
+  <si>
+    <t>Verify search with invalid keyword</t>
+  </si>
+  <si>
+    <t>{"search_product":"randomword"}</t>
+  </si>
+  <si>
+    <t>{"responseCode":200,"products":[]}</t>
+  </si>
+  <si>
+    <t>TC_API05_003</t>
+  </si>
+  <si>
+    <t>Verify search parameter is mandatory</t>
+  </si>
+  <si>
+    <t>{"responseCode":400,"message":"Bad request, search_product parameter is missing"}</t>
+  </si>
+  <si>
+    <t>TC_API05_004</t>
+  </si>
+  <si>
+    <t>Verify case-insensitivity of search</t>
+  </si>
+  <si>
+    <t>{"search_product":"Top"}</t>
+  </si>
+  <si>
+    <t>Response same as lowercase search</t>
+  </si>
+  <si>
+    <t>TC_API05_005</t>
+  </si>
+  <si>
+    <t>Verify invalid method not allowed</t>
+  </si>
+  <si>
+    <t>TC_API05_006</t>
+  </si>
+  <si>
+    <t>TC_API05_007</t>
+  </si>
+  <si>
+    <t>Verify search_product field accepts only string</t>
+  </si>
+  <si>
+    <t>{"search_product":123}</t>
+  </si>
+  <si>
+    <t>{"responseCode":400,"message":"Invalid data type"}</t>
+  </si>
+  <si>
+    <t>TC_API05_008</t>
+  </si>
+  <si>
+    <t>Verify search_product cannot be empty string</t>
+  </si>
+  <si>
+    <t>{"search_product":""}</t>
+  </si>
+  <si>
+    <t>{"responseCode":400,"message":"search_product cannot be empty"}</t>
+  </si>
+  <si>
+    <t>TC_API05_009</t>
+  </si>
+  <si>
+    <t>Verify search_product with special characters</t>
+  </si>
+  <si>
+    <t>{"search_product":"@#$%"}</t>
+  </si>
+  <si>
+    <t>TC_API05_010</t>
+  </si>
+  <si>
+    <t>Verify maximum length of search_product</t>
+  </si>
+  <si>
+    <t>{"search_product":"&lt;255+ characters&gt;"}</t>
+  </si>
+  <si>
+    <t>{"responseCode":400,"message":"Input too long"}</t>
+  </si>
+  <si>
+    <t>TC_API05_011</t>
+  </si>
+  <si>
+    <t>Verify null value handling</t>
+  </si>
+  <si>
+    <t>{"search_product":null}</t>
+  </si>
+  <si>
+    <t>TC_API07_001</t>
+  </si>
+  <si>
+    <t>Verify login with valid email and password</t>
+  </si>
+  <si>
+    <t>{ "email":"Nxxx@gmail.com" , "password": "Nxxx@1234" }</t>
+  </si>
+  <si>
+    <t>Nourhan Alabgar</t>
+  </si>
+  <si>
+    <t>TC_API07_002</t>
+  </si>
+  <si>
+    <t>Verify login is case-sensitive for email</t>
+  </si>
+  <si>
+    <t>{ "email": "NXXX@gmail.com", "password": "Nxxx@1234" }</t>
+  </si>
+  <si>
+    <t>TC_API07_003</t>
+  </si>
+  <si>
+    <t>TC_API07_004</t>
+  </si>
+  <si>
+    <t>Verify login with extra name parameter</t>
+  </si>
+  <si>
+    <t>{ "email": "Nxxx@gmail.com", "password": "Nxxx@1234", "name":"Nxxx" }</t>
+  </si>
+  <si>
+    <t>TC_API10_001</t>
+  </si>
+  <si>
+    <t>Verify login with unauthenticated (invalid) email and password</t>
+  </si>
+  <si>
+    <t>{ "email":"Nxxxx@gmail.com" , "password": "Nxxxx@1234" }</t>
+  </si>
+  <si>
+    <t>TC_API10_002</t>
+  </si>
+  <si>
+    <t>Verify login without email &amp; password</t>
+  </si>
+  <si>
+    <t>TC_API10_003</t>
+  </si>
+  <si>
+    <t>{"password": "Nxxx@1234" }</t>
+  </si>
+  <si>
+    <t>TC_API10_004</t>
+  </si>
+  <si>
+    <t>{ "email": "Nxxx@gmail.com"}</t>
+  </si>
+  <si>
+    <t>TC_API10_005</t>
+  </si>
+  <si>
+    <t>Verify login with valid email and invalid password</t>
+  </si>
+  <si>
+    <t>{ "email": "Nxxx@gmail.com", "password": "12345" }</t>
+  </si>
+  <si>
+    <t>TC_API10_006</t>
+  </si>
+  <si>
+    <t>Verify login with invalid email and valid password</t>
+  </si>
+  <si>
+    <t>{ "email": "Nxxxx@gmail.com", "password": "Nxxx@1234" }</t>
+  </si>
+  <si>
+    <t>TC_API10_007</t>
+  </si>
+  <si>
+    <t>Verify login with empty password</t>
+  </si>
+  <si>
+    <t>{ "email": "", "password": "Nxxx@1234" }</t>
+  </si>
+  <si>
+    <t>TC_API10_008</t>
+  </si>
+  <si>
+    <t>Verify login with empty email</t>
+  </si>
+  <si>
+    <t>{ "email": "Nxxx@gmail.com", "password": "" }</t>
+  </si>
+  <si>
+    <t>TC_API10_009</t>
+  </si>
+  <si>
+    <t>Verify login with valid email and mismatched password</t>
+  </si>
+  <si>
+    <t>{ "email": "NxxxM@gmail.com", "password": "Nxxx@1234" }</t>
+  </si>
+  <si>
+    <t>TC_API10_010</t>
+  </si>
+  <si>
+    <t>Verify login is case-sensitive for password</t>
+  </si>
+  <si>
+    <t>{ "email": "Nxxx@gmail.com", "password": "nXXX@1234" }</t>
+  </si>
+  <si>
+    <t>{"responseCode": 404, "message": "User not found!"}}</t>
+  </si>
+  <si>
+    <t>TC_API10_011</t>
+  </si>
+  <si>
+    <t>Verify login with name parameter instead of email</t>
+  </si>
+  <si>
+    <t>{ "name": "Nxxx", "password": "Nxxx@1234" }</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>TC_API14_001</t>
+  </si>
+  <si>
+    <t>Verify GET user account details by valid email</t>
+  </si>
+  <si>
+    <t>/api/getUserDetailByEmail</t>
+  </si>
+  <si>
+    <t>{ "email":"Nxxx@gmail.com"}</t>
+  </si>
+  <si>
+    <t>{"responseCode": 200, "user": {"id": 1076982, "name": "Nxxx", "email": "Nxxx@gmail.com", "title": "Miss", "birth_day": "14", "birth_month": "9", "birth_year": "2002", "first_name": "Nxxx", "last_name": "Axxxx", "company": "OpenAi", "address1": "Cairo", "address2": "Cairo", "country": "Egypt", "state": "Cairo", "city": "Cairo", "zipcode": "00000"}}</t>
+  </si>
+  <si>
+    <t>TC_API14_002</t>
+  </si>
+  <si>
+    <t>Verify GET user account details by invalid email</t>
+  </si>
+  <si>
+    <t>{ "email":"Nxxxx@gmail.com"}</t>
+  </si>
+  <si>
+    <t>{"responseCode": 404, "message": "Account not found with this email, try another email!"}</t>
+  </si>
+  <si>
+    <t>TC_API14_003</t>
+  </si>
+  <si>
+    <t>Verify GET login without email parameter</t>
+  </si>
+  <si>
+    <t>{"responseCode": 400, "message": "Bad request, email parameter is missing in GET request."}</t>
+  </si>
+  <si>
+    <t>TC_API14_004</t>
+  </si>
+  <si>
+    <t>Verify GET login without email value</t>
+  </si>
+  <si>
+    <t>{ "email": ""}</t>
+  </si>
+  <si>
+    <t>{"responseCode": 400, "message": "Bad request, email parameter is invalid"}</t>
+  </si>
+  <si>
+    <t>TC_API14_005</t>
+  </si>
+  <si>
+    <t>Verify GET login with invalid email format</t>
+  </si>
+  <si>
+    <t>{ "email": "Nxxx@gmail" }</t>
+  </si>
+  <si>
+    <t>TC_API14_006</t>
+  </si>
+  <si>
+    <t>Verify GET login is case-sensitive for email</t>
+  </si>
+  <si>
+    <t>{ "email": "NXXX@gmail.com"}</t>
+  </si>
+  <si>
+    <t>TC_API14_007</t>
+  </si>
+  <si>
+    <t>Verify GET login with name instead of email parameter</t>
+  </si>
+  <si>
+    <t>{ "name":"Nxxx"}</t>
+  </si>
+  <si>
+    <t>TC_API14_008</t>
+  </si>
+  <si>
+    <t>Verify login with POST method instead of GET (should not be accepted).</t>
+  </si>
+  <si>
+    <t>TC_API03_001</t>
+  </si>
+  <si>
+    <t>Verify GET returns all brand names successfully</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Response Code 200, list of brands returned</t>
+  </si>
+  <si>
+    <t>Mooaz Elsayed</t>
+  </si>
+  <si>
+    <t>TC_API03_002</t>
+  </si>
+  <si>
+    <t>Verify API returns error for invalid endpoint</t>
+  </si>
+  <si>
+    <t>Response Code 404 Not Found</t>
+  </si>
+  <si>
+    <t>TC_API03_003</t>
+  </si>
+  <si>
+    <t>Verify POST request to brandsList is not supported</t>
+  </si>
+  <si>
+    <t>Response Code 405 Method Not Allowed</t>
+  </si>
+  <si>
+    <t>TC_API02_001</t>
+  </si>
+  <si>
+    <t>Verify POST to productsList returns 405</t>
+  </si>
+  <si>
+    <t>405 Method Not Allowed</t>
+  </si>
+  <si>
+    <t>TC_API02_002</t>
+  </si>
+  <si>
+    <t>Verify GET to productsList returns products successfully</t>
+  </si>
+  <si>
+    <t>200 OK, list of products displayed</t>
+  </si>
+  <si>
+    <t>TC_API02_003</t>
+  </si>
+  <si>
+    <t>Verify invalid URL returns 404</t>
+  </si>
+  <si>
+    <t>/api/productList</t>
+  </si>
+  <si>
+    <t>404 Not Found</t>
+  </si>
+  <si>
+    <t>Column 7</t>
+  </si>
+  <si>
+    <t>TC_API09_001</t>
+  </si>
+  <si>
+    <t>Verify DELETE to verifyLogin returns 405</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Response Code 405, message displayed</t>
+  </si>
+  <si>
+    <t>TC_API09_002</t>
+  </si>
+  <si>
+    <t>Verify POST with valid login credentials works</t>
+  </si>
+  <si>
+    <t>email, password</t>
+  </si>
+  <si>
+    <t>Response Code 200, “User exists!”</t>
+  </si>
+  <si>
+    <t>TC_API09_003</t>
+  </si>
+  <si>
+    <t>Verify DELETE with wrong endpoint returns 404</t>
+  </si>
+  <si>
+    <t>TC_API6_001</t>
+  </si>
+  <si>
+    <t>Verify Search without insert data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://automationexercise.com/api/searchProduct</t>
+    </r>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>without pody</t>
+  </si>
+  <si>
+    <t>Message 400</t>
+  </si>
+  <si>
+    <t>ahmed kamal mohamed</t>
+  </si>
+  <si>
+    <t>TC_API6_002</t>
+  </si>
+  <si>
+    <t>Verify the search with another method (get insted of Post)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://automationexercise.com/api/searchProduct</t>
+    </r>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>search=tshirt</t>
+  </si>
+  <si>
+    <t>405 the method not support</t>
+  </si>
+  <si>
+    <t>TC_API6_003</t>
+  </si>
+  <si>
+    <t>Verify that the response code is 400</t>
+  </si>
+  <si>
+    <t>https://automationexercise.com/api/searchProduct</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>message 400</t>
+  </si>
+  <si>
+    <t>TC_API6_004</t>
+  </si>
+  <si>
+    <t>Verify Response message</t>
+  </si>
+  <si>
+    <t>Bad request, search_product parameter is missing in POST request.</t>
+  </si>
+  <si>
+    <t>TC_API12_001</t>
+  </si>
+  <si>
+    <t>Verify that Resposne code is 200 when insert right e-mail and password</t>
+  </si>
+  <si>
+    <t>api/deleteAccount</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Email:ahmed.kamal@mail.com ,Password: P@ssw0rd</t>
+  </si>
+  <si>
+    <t>Response code 200 message Account deleted</t>
+  </si>
+  <si>
+    <t>TC_API12_002</t>
+  </si>
+  <si>
+    <t>Verify thar resposne message is "account deleted"</t>
+  </si>
+  <si>
+    <t>Response Message "Account deleted"</t>
+  </si>
+  <si>
+    <t>TC_API12_003</t>
+  </si>
+  <si>
+    <t>Verify Send without E-mail</t>
+  </si>
+  <si>
+    <t>Empty E-mail and password</t>
+  </si>
+  <si>
+    <t>Response code 400 , Bad request</t>
+  </si>
+  <si>
+    <t>TC_API12_004</t>
+  </si>
+  <si>
+    <t>Verify Send Without Password</t>
+  </si>
+  <si>
+    <t>Send with E-mail but without passowrd</t>
+  </si>
+  <si>
+    <t>response code 400 , bad request and message forger password or E-mail</t>
+  </si>
+  <si>
+    <t>TC_API12_005</t>
+  </si>
+  <si>
+    <t>Verify Send with wrong E-mail</t>
+  </si>
+  <si>
+    <t>Send with Wrong E-mail</t>
+  </si>
+  <si>
+    <t>response code 400 ,bad request and message wrong email or password</t>
+  </si>
+  <si>
+    <t>TC_API12_006</t>
+  </si>
+  <si>
+    <t>verify send with wrong password</t>
+  </si>
+  <si>
+    <t>send with  wrong password and right mail</t>
+  </si>
+  <si>
+    <t>TC_API12_007</t>
+  </si>
+  <si>
+    <t>Verify send with E-mail already deleted before</t>
+  </si>
+  <si>
+    <t>send with E-mail and password already deleted</t>
+  </si>
+  <si>
+    <t>response code 400 bad request</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -676,13 +1333,73 @@
       <color rgb="FFFF0000"/>
       <name val="Inter"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="'IBMPlexMono"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF356854"/>
+        <bgColor rgb="FF356854"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8F9"/>
+        <bgColor rgb="FFF6F8F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFE"/>
+        <bgColor rgb="FFFFFFFE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -705,7 +1422,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -745,17 +1462,72 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,7 +1588,7 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="3">
+  <tableStyles count="12">
     <tableStyle count="4" pivot="0" name="Muhammad Emad-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -830,6 +1602,60 @@
       <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
     </tableStyle>
     <tableStyle count="4" pivot="0" name="Muhammad Emad-style 3">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    </tableStyle>
+    <tableStyle count="4" pivot="0" name="Ali Ashour-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    </tableStyle>
+    <tableStyle count="4" pivot="0" name="Ali Ashour-style 2">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    </tableStyle>
+    <tableStyle count="4" pivot="0" name="Ali Ashour-style 3">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    </tableStyle>
+    <tableStyle count="4" pivot="0" name="Nour Ayman-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    </tableStyle>
+    <tableStyle count="4" pivot="0" name="Nour Ayman-style 2">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    </tableStyle>
+    <tableStyle count="4" pivot="0" name="Moaz Elsayed-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    </tableStyle>
+    <tableStyle count="4" pivot="0" name="Moaz Elsayed-style 2">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    </tableStyle>
+    <tableStyle count="4" pivot="0" name="Ahmed Kamal-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    </tableStyle>
+    <tableStyle count="4" pivot="0" name="Ahmed Kamal-style 2">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -878,6 +1704,63 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A13:K21" displayName="Table1_2" name="Table1_2" id="10">
+  <tableColumns count="11">
+    <tableColumn name="ID" id="1"/>
+    <tableColumn name="Test Scenario" id="2"/>
+    <tableColumn name="End Point" id="3"/>
+    <tableColumn name="Method" id="4"/>
+    <tableColumn name="Parameters" id="5"/>
+    <tableColumn name="Expected Response" id="6"/>
+    <tableColumn name="Column 7" id="7"/>
+    <tableColumn name="Status" id="8"/>
+    <tableColumn name="Priority" id="9"/>
+    <tableColumn name="Creator" id="10"/>
+    <tableColumn name="Assignee (Executed By)" id="11"/>
+  </tableColumns>
+  <tableStyleInfo name="Moaz Elsayed-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:K7" displayName="Table4" name="Table4" id="11">
+  <tableColumns count="11">
+    <tableColumn name="ID" id="1"/>
+    <tableColumn name="Test Scenario" id="2"/>
+    <tableColumn name="End Point" id="3"/>
+    <tableColumn name="Method" id="4"/>
+    <tableColumn name="Input / Request Body" id="5"/>
+    <tableColumn name="Expected Response" id="6"/>
+    <tableColumn name="Actual Response" id="7"/>
+    <tableColumn name="Status" id="8"/>
+    <tableColumn name="Priority" id="9"/>
+    <tableColumn name="Creator" id="10"/>
+    <tableColumn name="Assignee (Executed By)" id="11"/>
+  </tableColumns>
+  <tableStyleInfo name="Ahmed Kamal-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A10:K17" displayName="Table3" name="Table3" id="12">
+  <tableColumns count="11">
+    <tableColumn name="ID" id="1"/>
+    <tableColumn name="Test Scenario" id="2"/>
+    <tableColumn name="End Point" id="3"/>
+    <tableColumn name="Method" id="4"/>
+    <tableColumn name="Input / Request Body" id="5"/>
+    <tableColumn name="Expected Response" id="6"/>
+    <tableColumn name="Actual Response" id="7"/>
+    <tableColumn name="Status" id="8"/>
+    <tableColumn name="Priority" id="9"/>
+    <tableColumn name="Creator" id="10"/>
+    <tableColumn name="Assignee (Executed By)" id="11"/>
+  </tableColumns>
+  <tableStyleInfo name="Ahmed Kamal-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:K45" displayName="API11_CreateAccount_Table" name="API11_CreateAccount_Table" id="2">
   <tableColumns count="11">
@@ -913,6 +1796,120 @@
     <tableColumn name="Assignee (Executed By)" id="11"/>
   </tableColumns>
   <tableStyleInfo name="Muhammad Emad-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:K8" displayName="API08_LoginWithoutEmail_Table_2" name="API08_LoginWithoutEmail_Table_2" id="4">
+  <tableColumns count="11">
+    <tableColumn name="ID" id="1"/>
+    <tableColumn name="Test Scenario" id="2"/>
+    <tableColumn name="End Point" id="3"/>
+    <tableColumn name="Method" id="4"/>
+    <tableColumn name="Input / Request Body" id="5"/>
+    <tableColumn name="Expected Response" id="6"/>
+    <tableColumn name="Actual Response" id="7"/>
+    <tableColumn name="Status" id="8"/>
+    <tableColumn name="Priority" id="9"/>
+    <tableColumn name="Creator" id="10"/>
+    <tableColumn name="Assignee (Executed By)" id="11"/>
+  </tableColumns>
+  <tableStyleInfo name="Ali Ashour-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A11:K14" displayName="API04_UpdateBrands_Table_2" name="API04_UpdateBrands_Table_2" id="5">
+  <tableColumns count="11">
+    <tableColumn name="ID" id="1"/>
+    <tableColumn name="Test Scenario" id="2"/>
+    <tableColumn name="End Point" id="3"/>
+    <tableColumn name="Method" id="4"/>
+    <tableColumn name="Input / Request Body" id="5"/>
+    <tableColumn name="Expected Response" id="6"/>
+    <tableColumn name="Actual Response" id="7"/>
+    <tableColumn name="Status" id="8"/>
+    <tableColumn name="Priority" id="9"/>
+    <tableColumn name="Creator" id="10"/>
+    <tableColumn name="Assignee (Executed By)" id="11"/>
+  </tableColumns>
+  <tableStyleInfo name="Ali Ashour-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A17:K28" displayName="API05_SearchProducts_Table_2" name="API05_SearchProducts_Table_2" id="6">
+  <tableColumns count="11">
+    <tableColumn name="ID" id="1"/>
+    <tableColumn name="Test Scenario" id="2"/>
+    <tableColumn name="End Point" id="3"/>
+    <tableColumn name="Method" id="4"/>
+    <tableColumn name="Input / Request Body" id="5"/>
+    <tableColumn name="Expected Response" id="6"/>
+    <tableColumn name="Actual Response" id="7"/>
+    <tableColumn name="Status" id="8"/>
+    <tableColumn name="Priority" id="9"/>
+    <tableColumn name="Creator" id="10"/>
+    <tableColumn name="Assignee (Executed By)" id="11"/>
+  </tableColumns>
+  <tableStyleInfo name="Ali Ashour-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:K18" displayName="POST_To_Verify_Login_with_valid_details" name="POST_To_Verify_Login_with_valid_details" id="7">
+  <tableColumns count="11">
+    <tableColumn name="ID" id="1"/>
+    <tableColumn name="Test Scenario" id="2"/>
+    <tableColumn name="End Point" id="3"/>
+    <tableColumn name="Method" id="4"/>
+    <tableColumn name="Input / Request Body" id="5"/>
+    <tableColumn name="Expected Response" id="6"/>
+    <tableColumn name="Actual Response" id="7"/>
+    <tableColumn name="Status" id="8"/>
+    <tableColumn name="Priority" id="9"/>
+    <tableColumn name="Creator" id="10"/>
+    <tableColumn name="Assignee (Executed By)" id="11"/>
+  </tableColumns>
+  <tableStyleInfo name="Nour Ayman-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A24:K32" displayName="Table1" name="Table1" id="8">
+  <tableColumns count="11">
+    <tableColumn name="ID" id="1"/>
+    <tableColumn name="Test Scenario" id="2"/>
+    <tableColumn name="End Point" id="3"/>
+    <tableColumn name="Method" id="4"/>
+    <tableColumn name="Parameters" id="5"/>
+    <tableColumn name="Expected Response" id="6"/>
+    <tableColumn name="Actual Response" id="7"/>
+    <tableColumn name="Status" id="8"/>
+    <tableColumn name="Priority" id="9"/>
+    <tableColumn name="Creator" id="10"/>
+    <tableColumn name="Assignee (Executed By)" id="11"/>
+  </tableColumns>
+  <tableStyleInfo name="Nour Ayman-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:K9" displayName="Test" name="Test" id="9">
+  <tableColumns count="11">
+    <tableColumn name="ID" id="1"/>
+    <tableColumn name="Test Scenario" id="2"/>
+    <tableColumn name="End Point" id="3"/>
+    <tableColumn name="Method" id="4"/>
+    <tableColumn name="Input / Request Body" id="5"/>
+    <tableColumn name="Expected Response" id="6"/>
+    <tableColumn name="Actual Response" id="7"/>
+    <tableColumn name="Status" id="8"/>
+    <tableColumn name="Priority" id="9"/>
+    <tableColumn name="Creator" id="10"/>
+    <tableColumn name="Assignee (Executed By)" id="11"/>
+  </tableColumns>
+  <tableStyleInfo name="Moaz Elsayed-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1128,7 +2125,7 @@
     <col customWidth="1" min="3" max="3" width="20.43"/>
     <col customWidth="1" min="4" max="4" width="11.29"/>
     <col customWidth="1" min="5" max="5" width="61.71"/>
-    <col customWidth="1" min="6" max="6" width="35.0"/>
+    <col customWidth="1" min="6" max="6" width="57.43"/>
     <col customWidth="1" min="7" max="7" width="36.71"/>
     <col customWidth="1" min="8" max="8" width="16.57"/>
     <col customWidth="1" min="9" max="9" width="16.43"/>
@@ -1143,7 +2140,7 @@
     <row r="2">
       <c r="D2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +2175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1209,7 +2206,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1240,7 +2237,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1271,7 +2268,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1302,7 +2299,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1333,7 +2330,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1364,7 +2361,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -1395,7 +2392,7 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1426,7 +2423,7 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12">
+    <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -1457,7 +2454,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13">
+    <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -1488,7 +2485,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14">
+    <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
@@ -1519,7 +2516,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15">
+    <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
@@ -1556,7 +2553,7 @@
     <row r="17">
       <c r="D17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +2588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
@@ -1622,7 +2619,7 @@
       </c>
       <c r="K19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>66</v>
       </c>
@@ -1653,7 +2650,7 @@
       </c>
       <c r="K20" s="9"/>
     </row>
-    <row r="21">
+    <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
@@ -1684,7 +2681,7 @@
       </c>
       <c r="K21" s="9"/>
     </row>
-    <row r="22">
+    <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>73</v>
       </c>
@@ -1715,7 +2712,7 @@
       </c>
       <c r="K22" s="9"/>
     </row>
-    <row r="23">
+    <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>77</v>
       </c>
@@ -1746,7 +2743,7 @@
       </c>
       <c r="K23" s="9"/>
     </row>
-    <row r="24">
+    <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>81</v>
       </c>
@@ -1777,7 +2774,7 @@
       </c>
       <c r="K24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>85</v>
       </c>
@@ -1808,7 +2805,7 @@
       </c>
       <c r="K25" s="9"/>
     </row>
-    <row r="26">
+    <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>89</v>
       </c>
@@ -1839,7 +2836,7 @@
       </c>
       <c r="K26" s="9"/>
     </row>
-    <row r="27">
+    <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
@@ -1870,7 +2867,7 @@
       </c>
       <c r="K27" s="9"/>
     </row>
-    <row r="28">
+    <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>97</v>
       </c>
@@ -1901,7 +2898,7 @@
       </c>
       <c r="K28" s="9"/>
     </row>
-    <row r="29">
+    <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>101</v>
       </c>
@@ -1932,7 +2929,7 @@
       </c>
       <c r="K29" s="9"/>
     </row>
-    <row r="30">
+    <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>105</v>
       </c>
@@ -1963,7 +2960,7 @@
       </c>
       <c r="K30" s="9"/>
     </row>
-    <row r="31">
+    <row r="31" ht="22.5" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>109</v>
       </c>
@@ -1994,7 +2991,7 @@
       </c>
       <c r="K31" s="9"/>
     </row>
-    <row r="32">
+    <row r="32" ht="22.5" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>113</v>
       </c>
@@ -2025,7 +3022,7 @@
       </c>
       <c r="K32" s="9"/>
     </row>
-    <row r="33">
+    <row r="33" ht="22.5" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>117</v>
       </c>
@@ -2056,7 +3053,7 @@
       </c>
       <c r="K33" s="9"/>
     </row>
-    <row r="34">
+    <row r="34" ht="22.5" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>121</v>
       </c>
@@ -2087,7 +3084,7 @@
       </c>
       <c r="K34" s="9"/>
     </row>
-    <row r="35">
+    <row r="35" ht="22.5" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>125</v>
       </c>
@@ -2118,7 +3115,7 @@
       </c>
       <c r="K35" s="9"/>
     </row>
-    <row r="36">
+    <row r="36" ht="22.5" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>129</v>
       </c>
@@ -2149,7 +3146,7 @@
       </c>
       <c r="K36" s="9"/>
     </row>
-    <row r="37">
+    <row r="37" ht="22.5" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>133</v>
       </c>
@@ -2180,7 +3177,7 @@
       </c>
       <c r="K37" s="9"/>
     </row>
-    <row r="38">
+    <row r="38" ht="22.5" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>136</v>
       </c>
@@ -2211,7 +3208,7 @@
       </c>
       <c r="K38" s="9"/>
     </row>
-    <row r="39">
+    <row r="39" ht="22.5" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>140</v>
       </c>
@@ -2348,7 +3345,7 @@
       <c r="D43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="6" t="s">
         <v>158</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -2379,7 +3376,7 @@
       <c r="D44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="3" t="s">
         <v>161</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -2413,7 +3410,7 @@
       <c r="E45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="13" t="s">
         <v>164</v>
       </c>
       <c r="G45" s="6"/>
@@ -2479,7 +3476,7 @@
       <c r="C49" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -2510,7 +3507,7 @@
       <c r="C50" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -2531,8 +3528,8 @@
       </c>
       <c r="K50" s="6"/>
     </row>
-    <row r="51">
-      <c r="A51" s="4" t="s">
+    <row r="51" ht="22.5" customHeight="1">
+      <c r="A51" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -2572,7 +3569,7 @@
       <c r="C52" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E52" s="6" t="s">
@@ -2603,7 +3600,7 @@
       <c r="C53" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E53" s="6" t="s">
@@ -2634,7 +3631,7 @@
       <c r="C54" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E54" s="6" t="s">
@@ -2665,7 +3662,7 @@
       <c r="C55" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E55" s="3" t="s">
@@ -2696,7 +3693,7 @@
       <c r="C56" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E56" s="6" t="s">
@@ -2727,7 +3724,7 @@
       <c r="C57" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E57" s="6" t="s">
@@ -2758,7 +3755,7 @@
       <c r="C58" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E58" s="6" t="s">
@@ -2789,7 +3786,7 @@
       <c r="C59" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E59" s="6" t="s">
@@ -2820,7 +3817,7 @@
       <c r="C60" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E60" s="6" t="s">
@@ -2851,7 +3848,7 @@
       <c r="C61" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E61" s="6" t="s">
@@ -2882,7 +3879,7 @@
       <c r="C62" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -2913,7 +3910,7 @@
       <c r="C63" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -5775,14 +6772,3547 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.71"/>
+    <col customWidth="1" min="2" max="2" width="56.0"/>
+    <col customWidth="1" min="3" max="3" width="20.43"/>
+    <col customWidth="1" min="4" max="4" width="11.29"/>
+    <col customWidth="1" min="5" max="5" width="61.71"/>
+    <col customWidth="1" min="6" max="6" width="57.43"/>
+    <col customWidth="1" min="7" max="7" width="36.71"/>
+    <col customWidth="1" min="8" max="8" width="16.57"/>
+    <col customWidth="1" min="9" max="9" width="16.43"/>
+    <col customWidth="1" min="10" max="10" width="28.86"/>
+    <col customWidth="1" min="11" max="11" width="24.86"/>
+    <col customWidth="1" min="12" max="26" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="D228" s="1"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="D237" s="1"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="D238" s="1"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="D242" s="1"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="D255" s="1"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="D256" s="1"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="D257" s="1"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="D258" s="1"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="D259" s="1"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="D260" s="1"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="D262" s="1"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="D263" s="1"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="D264" s="1"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="D265" s="1"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="D266" s="1"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="D267" s="1"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="D268" s="1"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="D269" s="1"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="D270" s="1"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="D271" s="1"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="D272" s="1"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="D274" s="1"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="D275" s="1"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="D276" s="1"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="D277" s="1"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="D278" s="1"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="D279" s="1"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="D280" s="1"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="D281" s="1"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="D282" s="1"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="D283" s="1"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="D284" s="1"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="D285" s="1"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="D286" s="1"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="D287" s="1"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="D288" s="1"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="D291" s="1"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="D292" s="1"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="D293" s="1"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="D295" s="1"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="D296" s="1"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="D297" s="1"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="D298" s="1"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="D301" s="1"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="D302" s="1"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="D303" s="1"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="D304" s="1"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="D305" s="1"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="D306" s="1"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="D307" s="1"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="D308" s="1"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="D309" s="1"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="D310" s="1"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="D311" s="1"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="D312" s="1"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="D313" s="1"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="D314" s="1"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="D315" s="1"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="D316" s="1"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="D317" s="1"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="D318" s="1"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="D319" s="1"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="D320" s="1"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="D321" s="1"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="D322" s="1"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="D323" s="1"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="D324" s="1"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="D325" s="1"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="D326" s="1"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="D327" s="1"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="D328" s="1"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="D329" s="1"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="D330" s="1"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="D331" s="1"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="D332" s="1"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="D333" s="1"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="D334" s="1"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="D335" s="1"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="D336" s="1"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="D337" s="1"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="D338" s="1"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="D339" s="1"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="D340" s="1"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="D341" s="1"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="D342" s="1"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="D343" s="1"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="D344" s="1"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="D345" s="1"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="D346" s="1"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="D347" s="1"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="D348" s="1"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="D349" s="1"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="D350" s="1"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="D351" s="1"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="D352" s="1"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="D353" s="1"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="D354" s="1"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="D355" s="1"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="D356" s="1"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="D357" s="1"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="D358" s="1"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="D359" s="1"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="D360" s="1"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="D361" s="1"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="D362" s="1"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="D363" s="1"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="D364" s="1"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="D365" s="1"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="D366" s="1"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="D367" s="1"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="D368" s="1"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="D369" s="1"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="D370" s="1"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="D371" s="1"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="D372" s="1"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="D373" s="1"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="D374" s="1"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="D375" s="1"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="D376" s="1"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="D377" s="1"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="D378" s="1"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="D379" s="1"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="D380" s="1"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="D381" s="1"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="D382" s="1"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="D383" s="1"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="D384" s="1"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="D385" s="1"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="D386" s="1"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="D387" s="1"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="D388" s="1"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="D389" s="1"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="D390" s="1"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="D391" s="1"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="D392" s="1"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="D393" s="1"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="D394" s="1"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="D395" s="1"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="D396" s="1"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="D397" s="1"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="D398" s="1"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="D399" s="1"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="D400" s="1"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="D401" s="1"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="D402" s="1"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="D403" s="1"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="D404" s="1"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="D405" s="1"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="D406" s="1"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="D407" s="1"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="D408" s="1"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="D409" s="1"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="D410" s="1"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="D411" s="1"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="D412" s="1"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="D413" s="1"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="D414" s="1"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="D415" s="1"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="D416" s="1"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="D417" s="1"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="D418" s="1"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="D419" s="1"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="D420" s="1"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="D421" s="1"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="D422" s="1"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="D423" s="1"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="D424" s="1"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="D425" s="1"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="D426" s="1"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="D427" s="1"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="D428" s="1"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="D429" s="1"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="D430" s="1"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="D431" s="1"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="D432" s="1"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="D433" s="1"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="D434" s="1"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="D435" s="1"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="D436" s="1"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="D437" s="1"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="D438" s="1"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="D439" s="1"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="D440" s="1"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="D441" s="1"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="D442" s="1"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="D443" s="1"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="D444" s="1"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="D445" s="1"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="D446" s="1"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="D447" s="1"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="D448" s="1"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="D449" s="1"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="D450" s="1"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="D451" s="1"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="D452" s="1"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="D453" s="1"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="D454" s="1"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="D455" s="1"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="D456" s="1"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="D457" s="1"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="D458" s="1"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="D459" s="1"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="D460" s="1"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="D461" s="1"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="D462" s="1"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="D463" s="1"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="D464" s="1"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="D465" s="1"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="D466" s="1"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="D467" s="1"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="D468" s="1"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="D469" s="1"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="D470" s="1"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="D471" s="1"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="D472" s="1"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="D473" s="1"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="D474" s="1"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="D475" s="1"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="D476" s="1"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="D477" s="1"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="D478" s="1"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="D479" s="1"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="D480" s="1"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="D481" s="1"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="D482" s="1"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="D483" s="1"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="D484" s="1"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="D485" s="1"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="D486" s="1"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="D487" s="1"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="D488" s="1"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="D489" s="1"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="D490" s="1"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="D491" s="1"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="D492" s="1"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="D493" s="1"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="D494" s="1"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="D495" s="1"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="D496" s="1"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="D497" s="1"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="D498" s="1"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="D499" s="1"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="D500" s="1"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="D501" s="1"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="D502" s="1"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="D503" s="1"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="D504" s="1"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="D505" s="1"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="D506" s="1"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="D507" s="1"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="D508" s="1"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="D509" s="1"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="D510" s="1"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="D511" s="1"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="D512" s="1"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="D513" s="1"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="D514" s="1"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="D515" s="1"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="D516" s="1"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="D517" s="1"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="D518" s="1"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="D519" s="1"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="D520" s="1"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="D521" s="1"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="D522" s="1"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="D523" s="1"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="D524" s="1"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="D525" s="1"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="D526" s="1"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="D527" s="1"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="D528" s="1"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="D529" s="1"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="D530" s="1"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="D531" s="1"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="D532" s="1"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="D533" s="1"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="D534" s="1"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="D535" s="1"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="D536" s="1"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="D537" s="1"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="D538" s="1"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="D539" s="1"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="D540" s="1"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="D541" s="1"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="D542" s="1"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="D543" s="1"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="D544" s="1"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="D545" s="1"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="D546" s="1"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="D547" s="1"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="D548" s="1"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="D549" s="1"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="D550" s="1"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="D551" s="1"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="D552" s="1"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="D553" s="1"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="D554" s="1"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="D555" s="1"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="D556" s="1"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="D557" s="1"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="D558" s="1"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="D559" s="1"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="D560" s="1"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="D561" s="1"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="D562" s="1"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="D563" s="1"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="D564" s="1"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="D565" s="1"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="D566" s="1"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="D567" s="1"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="D568" s="1"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="D569" s="1"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="D570" s="1"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="D571" s="1"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="D572" s="1"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="D573" s="1"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="D574" s="1"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="D575" s="1"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="D576" s="1"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="D577" s="1"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="D578" s="1"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="D579" s="1"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="D580" s="1"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="D581" s="1"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="D582" s="1"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="D583" s="1"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="D584" s="1"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="D585" s="1"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="D586" s="1"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="D587" s="1"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="D588" s="1"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="D589" s="1"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="D590" s="1"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="D591" s="1"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="D592" s="1"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="D593" s="1"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="D594" s="1"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="D595" s="1"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="D596" s="1"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="D597" s="1"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="D598" s="1"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="D599" s="1"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="D600" s="1"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="D601" s="1"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="D602" s="1"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="D603" s="1"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="D604" s="1"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="D605" s="1"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="D606" s="1"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="D607" s="1"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="D608" s="1"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="D609" s="1"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="D610" s="1"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="D611" s="1"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="D612" s="1"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="D613" s="1"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="D614" s="1"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="D615" s="1"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="D616" s="1"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="D617" s="1"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="D618" s="1"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="D619" s="1"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="D620" s="1"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="D621" s="1"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="D622" s="1"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="D623" s="1"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="D624" s="1"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="D625" s="1"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="D626" s="1"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="D627" s="1"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="D628" s="1"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="D629" s="1"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="D630" s="1"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="D631" s="1"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="D632" s="1"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="D633" s="1"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="D634" s="1"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="D635" s="1"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="D636" s="1"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="D637" s="1"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="D638" s="1"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="D639" s="1"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="D640" s="1"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="D641" s="1"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="D642" s="1"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="D643" s="1"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="D644" s="1"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="D645" s="1"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="D646" s="1"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="D647" s="1"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="D648" s="1"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="D649" s="1"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="D650" s="1"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="D651" s="1"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="D652" s="1"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="D653" s="1"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="D654" s="1"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="D655" s="1"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="D656" s="1"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="D657" s="1"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="D658" s="1"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="D659" s="1"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="D660" s="1"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="D661" s="1"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="D662" s="1"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="D663" s="1"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="D664" s="1"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="D665" s="1"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="D666" s="1"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="D667" s="1"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="D668" s="1"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="D669" s="1"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="D670" s="1"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="D671" s="1"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="D672" s="1"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="D673" s="1"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="D674" s="1"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="D675" s="1"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="D676" s="1"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="D677" s="1"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="D678" s="1"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="D679" s="1"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="D680" s="1"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="D681" s="1"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="D682" s="1"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="D683" s="1"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="D684" s="1"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="D685" s="1"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="D686" s="1"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="D687" s="1"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="D688" s="1"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="D689" s="1"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="D690" s="1"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="D691" s="1"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="D692" s="1"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="D693" s="1"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="D694" s="1"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="D695" s="1"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="D696" s="1"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="D697" s="1"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="D698" s="1"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="D699" s="1"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="D700" s="1"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="D701" s="1"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="D702" s="1"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="D703" s="1"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="D704" s="1"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="D705" s="1"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="D706" s="1"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="D707" s="1"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="D708" s="1"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="D709" s="1"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="D710" s="1"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="D711" s="1"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="D712" s="1"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="D713" s="1"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="D714" s="1"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="D715" s="1"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="D716" s="1"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="D717" s="1"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="D718" s="1"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="D719" s="1"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="D720" s="1"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="D721" s="1"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="D722" s="1"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="D723" s="1"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="D724" s="1"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="D725" s="1"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="D726" s="1"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="D727" s="1"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="D728" s="1"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="D729" s="1"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="D730" s="1"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="D731" s="1"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="D732" s="1"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="D733" s="1"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="D734" s="1"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="D735" s="1"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="D736" s="1"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="D737" s="1"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="D738" s="1"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="D739" s="1"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="D740" s="1"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="D741" s="1"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="D742" s="1"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="D743" s="1"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="D744" s="1"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="D745" s="1"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="D746" s="1"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="D747" s="1"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="D748" s="1"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="D749" s="1"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="D750" s="1"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="D751" s="1"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="D752" s="1"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="D753" s="1"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="D754" s="1"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="D755" s="1"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="D756" s="1"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="D757" s="1"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="D758" s="1"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="D759" s="1"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="D760" s="1"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="D761" s="1"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="D762" s="1"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="D763" s="1"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="D764" s="1"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="D765" s="1"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="D766" s="1"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="D767" s="1"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="D768" s="1"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="D769" s="1"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="D770" s="1"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="D771" s="1"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="D772" s="1"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="D773" s="1"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="D774" s="1"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="D775" s="1"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="D776" s="1"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="D777" s="1"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="D778" s="1"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="D779" s="1"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="D780" s="1"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="D781" s="1"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="D782" s="1"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="D783" s="1"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="D784" s="1"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="D785" s="1"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="D786" s="1"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="D787" s="1"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="D788" s="1"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="D789" s="1"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="D790" s="1"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="D791" s="1"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="D792" s="1"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="D793" s="1"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="D794" s="1"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="D795" s="1"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="D796" s="1"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="D797" s="1"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="D798" s="1"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="D799" s="1"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="D800" s="1"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="D801" s="1"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="D802" s="1"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="D803" s="1"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="D804" s="1"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="D805" s="1"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="D806" s="1"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="D807" s="1"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="D808" s="1"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="D809" s="1"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="D810" s="1"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="D811" s="1"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="D812" s="1"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="D813" s="1"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="D814" s="1"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="D815" s="1"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="D816" s="1"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="D817" s="1"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="D818" s="1"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="D819" s="1"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="D820" s="1"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="D821" s="1"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="D822" s="1"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="D823" s="1"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="D824" s="1"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="D825" s="1"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="D826" s="1"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="D827" s="1"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="D828" s="1"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="D829" s="1"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="D830" s="1"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="D831" s="1"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="D832" s="1"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="D833" s="1"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="D834" s="1"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="D835" s="1"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="D836" s="1"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="D837" s="1"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="D838" s="1"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="D839" s="1"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="D840" s="1"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="D841" s="1"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="D842" s="1"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="D843" s="1"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="D844" s="1"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="D845" s="1"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="D846" s="1"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="D847" s="1"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="D848" s="1"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="D849" s="1"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="D850" s="1"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="D851" s="1"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="D852" s="1"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="D853" s="1"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="D854" s="1"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="D855" s="1"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="D856" s="1"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="D857" s="1"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="D858" s="1"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="D859" s="1"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="D860" s="1"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="D861" s="1"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="D862" s="1"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="D863" s="1"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="D864" s="1"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="D865" s="1"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="D866" s="1"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="D867" s="1"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="D868" s="1"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="D869" s="1"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="D870" s="1"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="D871" s="1"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="D872" s="1"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="D873" s="1"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="D874" s="1"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="D875" s="1"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="D876" s="1"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="D877" s="1"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="D878" s="1"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="D879" s="1"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="D880" s="1"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="D881" s="1"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="D882" s="1"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="D883" s="1"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="D884" s="1"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="D885" s="1"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="D886" s="1"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="D887" s="1"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="D888" s="1"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="D889" s="1"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="D890" s="1"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="D891" s="1"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="D892" s="1"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="D893" s="1"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="D894" s="1"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="D895" s="1"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="D896" s="1"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="D897" s="1"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="D898" s="1"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="D899" s="1"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="D900" s="1"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="D901" s="1"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="D902" s="1"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="D903" s="1"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="D904" s="1"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="D905" s="1"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="D906" s="1"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="D907" s="1"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="D908" s="1"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="D909" s="1"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="D910" s="1"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="D911" s="1"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="D912" s="1"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="D913" s="1"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="D914" s="1"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="D915" s="1"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="D916" s="1"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="D917" s="1"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="D918" s="1"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="D919" s="1"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="D920" s="1"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="D921" s="1"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="D922" s="1"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="D923" s="1"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="D924" s="1"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="D925" s="1"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="D926" s="1"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="D927" s="1"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="D928" s="1"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="D929" s="1"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="D930" s="1"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="D931" s="1"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="D932" s="1"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="D933" s="1"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="D934" s="1"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="D935" s="1"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="D936" s="1"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="D937" s="1"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="D938" s="1"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="D939" s="1"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="D940" s="1"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="D941" s="1"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="D942" s="1"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="D943" s="1"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="D944" s="1"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="D945" s="1"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="D946" s="1"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="D947" s="1"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="D948" s="1"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="D949" s="1"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="D950" s="1"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="D951" s="1"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="D952" s="1"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="D953" s="1"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="D954" s="1"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="D955" s="1"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="D956" s="1"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="D957" s="1"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="D958" s="1"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="D959" s="1"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="D960" s="1"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="D961" s="1"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="D962" s="1"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="D963" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="I4:I8 I12:I14 I18:I28">
+      <formula1>"Critical,High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="H4:H8 H12:H14 H18:H28">
+      <formula1>"NotTested,Pass,Fail,Blocked"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -5795,8 +10325,859 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.86"/>
+    <col customWidth="1" min="2" max="2" width="66.29"/>
+    <col customWidth="1" min="3" max="3" width="35.86"/>
+    <col customWidth="1" min="4" max="4" width="15.29"/>
+    <col customWidth="1" min="5" max="5" width="71.71"/>
+    <col customWidth="1" min="6" max="6" width="102.29"/>
+    <col customWidth="1" min="7" max="7" width="32.57"/>
+    <col customWidth="1" min="8" max="8" width="20.86"/>
+    <col customWidth="1" min="9" max="9" width="16.86"/>
+    <col customWidth="1" min="10" max="10" width="22.43"/>
+    <col customWidth="1" min="11" max="11" width="24.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="21"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" ht="22.5" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="22.5" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" ht="22.5" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" ht="22.5" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" ht="22.5" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" ht="22.5" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" ht="22.5" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" ht="22.5" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K31" s="25"/>
+    </row>
+    <row r="32" ht="22.5" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" s="6"/>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="H25:H30">
+      <formula1>"NotTested,Pass,Fail,Blocked"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="I25:I30">
+      <formula1>"Critical,High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="I3:I18 I25:I32">
+      <formula1>"Critical,High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="H3:H18 H25:H32">
+      <formula1>"NotTested,Pass,Fail,Blocked"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -5809,8 +11190,480 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.86"/>
+    <col customWidth="1" min="2" max="2" width="66.29"/>
+    <col customWidth="1" min="3" max="3" width="35.86"/>
+    <col customWidth="1" min="4" max="4" width="15.29"/>
+    <col customWidth="1" min="5" max="5" width="71.71"/>
+    <col customWidth="1" min="6" max="6" width="102.29"/>
+    <col customWidth="1" min="7" max="7" width="41.86"/>
+    <col customWidth="1" min="8" max="8" width="20.86"/>
+    <col customWidth="1" min="9" max="9" width="16.86"/>
+    <col customWidth="1" min="10" max="10" width="22.43"/>
+    <col customWidth="1" min="11" max="11" width="34.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="6"/>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="I3:I9 I14:I21">
+      <formula1>"Critical,High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="H3:H9 H14:H21">
+      <formula1>"NotTested,Pass,Fail,Blocked"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -5823,7 +11676,3317 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.71"/>
+    <col customWidth="1" min="2" max="2" width="56.0"/>
+    <col customWidth="1" min="3" max="3" width="20.43"/>
+    <col customWidth="1" min="4" max="4" width="11.29"/>
+    <col customWidth="1" min="5" max="5" width="61.71"/>
+    <col customWidth="1" min="6" max="6" width="57.43"/>
+    <col customWidth="1" min="7" max="7" width="36.71"/>
+    <col customWidth="1" min="8" max="8" width="16.57"/>
+    <col customWidth="1" min="9" max="9" width="16.43"/>
+    <col customWidth="1" min="10" max="10" width="28.86"/>
+    <col customWidth="1" min="11" max="11" width="24.86"/>
+    <col customWidth="1" min="12" max="26" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" s="3">
+        <v>400.0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112">
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C113" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="D113" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F113" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G113" s="35"/>
+      <c r="H113" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I113" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J113" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="K113" s="35"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="D228" s="1"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="D237" s="1"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="D238" s="1"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="D242" s="1"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="D255" s="1"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="D256" s="1"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="D257" s="1"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="D258" s="1"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="D259" s="1"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="D260" s="1"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="D262" s="1"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="D263" s="1"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="D264" s="1"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="D265" s="1"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="D266" s="1"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="D267" s="1"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="D268" s="1"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="D269" s="1"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="D270" s="1"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="D271" s="1"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="D272" s="1"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="D274" s="1"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="D275" s="1"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="D276" s="1"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="D277" s="1"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="D278" s="1"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="D279" s="1"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="D280" s="1"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="D281" s="1"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="D282" s="1"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="D283" s="1"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="D284" s="1"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="D285" s="1"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="D286" s="1"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="D287" s="1"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="D288" s="1"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="D291" s="1"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="D292" s="1"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="D293" s="1"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="D295" s="1"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="D296" s="1"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="D297" s="1"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="D298" s="1"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="D301" s="1"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="D302" s="1"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="D303" s="1"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="D304" s="1"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="D305" s="1"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="D306" s="1"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="D307" s="1"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="D308" s="1"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="D309" s="1"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="D310" s="1"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="D311" s="1"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="D312" s="1"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="D313" s="1"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="D314" s="1"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="D315" s="1"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="D316" s="1"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="D317" s="1"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="D318" s="1"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="D319" s="1"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="D320" s="1"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="D321" s="1"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="D322" s="1"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="D323" s="1"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="D324" s="1"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="D325" s="1"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="D326" s="1"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="D327" s="1"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="D328" s="1"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="D329" s="1"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="D330" s="1"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="D331" s="1"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="D332" s="1"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="D333" s="1"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="D334" s="1"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="D335" s="1"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="D336" s="1"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="D337" s="1"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="D338" s="1"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="D339" s="1"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="D340" s="1"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="D341" s="1"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="D342" s="1"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="D343" s="1"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="D344" s="1"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="D345" s="1"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="D346" s="1"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="D347" s="1"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="D348" s="1"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="D349" s="1"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="D350" s="1"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="D351" s="1"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="D352" s="1"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="D353" s="1"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="D354" s="1"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="D355" s="1"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="D356" s="1"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="D357" s="1"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="D358" s="1"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="D359" s="1"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="D360" s="1"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="D361" s="1"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="D362" s="1"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="D363" s="1"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="D364" s="1"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="D365" s="1"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="D366" s="1"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="D367" s="1"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="D368" s="1"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="D369" s="1"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="D370" s="1"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="D371" s="1"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="D372" s="1"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="D373" s="1"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="D374" s="1"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="D375" s="1"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="D376" s="1"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="D377" s="1"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="D378" s="1"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="D379" s="1"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="D380" s="1"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="D381" s="1"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="D382" s="1"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="D383" s="1"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="D384" s="1"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="D385" s="1"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="D386" s="1"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="D387" s="1"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="D388" s="1"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="D389" s="1"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="D390" s="1"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="D391" s="1"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="D392" s="1"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="D393" s="1"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="D394" s="1"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="D395" s="1"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="D396" s="1"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="D397" s="1"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="D398" s="1"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="D399" s="1"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="D400" s="1"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="D401" s="1"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="D402" s="1"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="D403" s="1"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="D404" s="1"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="D405" s="1"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="D406" s="1"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="D407" s="1"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="D408" s="1"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="D409" s="1"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="D410" s="1"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="D411" s="1"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="D412" s="1"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="D413" s="1"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="D414" s="1"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="D415" s="1"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="D416" s="1"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="D417" s="1"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="D418" s="1"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="D419" s="1"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="D420" s="1"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="D421" s="1"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="D422" s="1"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="D423" s="1"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="D424" s="1"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="D425" s="1"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="D426" s="1"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="D427" s="1"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="D428" s="1"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="D429" s="1"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="D430" s="1"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="D431" s="1"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="D432" s="1"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="D433" s="1"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="D434" s="1"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="D435" s="1"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="D436" s="1"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="D437" s="1"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="D438" s="1"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="D439" s="1"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="D440" s="1"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="D441" s="1"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="D442" s="1"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="D443" s="1"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="D444" s="1"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="D445" s="1"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="D446" s="1"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="D447" s="1"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="D448" s="1"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="D449" s="1"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="D450" s="1"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="D451" s="1"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="D452" s="1"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="D453" s="1"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="D454" s="1"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="D455" s="1"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="D456" s="1"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="D457" s="1"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="D458" s="1"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="D459" s="1"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="D460" s="1"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="D461" s="1"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="D462" s="1"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="D463" s="1"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="D464" s="1"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="D465" s="1"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="D466" s="1"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="D467" s="1"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="D468" s="1"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="D469" s="1"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="D470" s="1"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="D471" s="1"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="D472" s="1"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="D473" s="1"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="D474" s="1"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="D475" s="1"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="D476" s="1"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="D477" s="1"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="D478" s="1"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="D479" s="1"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="D480" s="1"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="D481" s="1"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="D482" s="1"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="D483" s="1"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="D484" s="1"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="D485" s="1"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="D486" s="1"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="D487" s="1"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="D488" s="1"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="D489" s="1"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="D490" s="1"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="D491" s="1"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="D492" s="1"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="D493" s="1"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="D494" s="1"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="D495" s="1"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="D496" s="1"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="D497" s="1"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="D498" s="1"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="D499" s="1"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="D500" s="1"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="D501" s="1"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="D502" s="1"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="D503" s="1"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="D504" s="1"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="D505" s="1"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="D506" s="1"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="D507" s="1"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="D508" s="1"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="D509" s="1"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="D510" s="1"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="D511" s="1"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="D512" s="1"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="D513" s="1"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="D514" s="1"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="D515" s="1"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="D516" s="1"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="D517" s="1"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="D518" s="1"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="D519" s="1"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="D520" s="1"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="D521" s="1"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="D522" s="1"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="D523" s="1"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="D524" s="1"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="D525" s="1"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="D526" s="1"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="D527" s="1"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="D528" s="1"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="D529" s="1"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="D530" s="1"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="D531" s="1"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="D532" s="1"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="D533" s="1"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="D534" s="1"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="D535" s="1"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="D536" s="1"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="D537" s="1"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="D538" s="1"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="D539" s="1"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="D540" s="1"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="D541" s="1"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="D542" s="1"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="D543" s="1"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="D544" s="1"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="D545" s="1"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="D546" s="1"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="D547" s="1"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="D548" s="1"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="D549" s="1"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="D550" s="1"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="D551" s="1"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="D552" s="1"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="D553" s="1"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="D554" s="1"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="D555" s="1"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="D556" s="1"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="D557" s="1"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="D558" s="1"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="D559" s="1"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="D560" s="1"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="D561" s="1"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="D562" s="1"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="D563" s="1"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="D564" s="1"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="D565" s="1"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="D566" s="1"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="D567" s="1"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="D568" s="1"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="D569" s="1"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="D570" s="1"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="D571" s="1"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="D572" s="1"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="D573" s="1"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="D574" s="1"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="D575" s="1"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="D576" s="1"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="D577" s="1"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="D578" s="1"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="D579" s="1"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="D580" s="1"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="D581" s="1"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="D582" s="1"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="D583" s="1"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="D584" s="1"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="D585" s="1"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="D586" s="1"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="D587" s="1"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="D588" s="1"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="D589" s="1"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="D590" s="1"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="D591" s="1"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="D592" s="1"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="D593" s="1"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="D594" s="1"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="D595" s="1"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="D596" s="1"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="D597" s="1"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="D598" s="1"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="D599" s="1"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="D600" s="1"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="D601" s="1"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="D602" s="1"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="D603" s="1"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="D604" s="1"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="D605" s="1"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="D606" s="1"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="D607" s="1"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="D608" s="1"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="D609" s="1"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="D610" s="1"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="D611" s="1"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="D612" s="1"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="D613" s="1"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="D614" s="1"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="D615" s="1"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="D616" s="1"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="D617" s="1"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="D618" s="1"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="D619" s="1"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="D620" s="1"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="D621" s="1"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="D622" s="1"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="D623" s="1"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="D624" s="1"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="D625" s="1"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="D626" s="1"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="D627" s="1"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="D628" s="1"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="D629" s="1"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="D630" s="1"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="D631" s="1"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="D632" s="1"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="D633" s="1"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="D634" s="1"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="D635" s="1"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="D636" s="1"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="D637" s="1"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="D638" s="1"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="D639" s="1"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="D640" s="1"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="D641" s="1"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="D642" s="1"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="D643" s="1"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="D644" s="1"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="D645" s="1"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="D646" s="1"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="D647" s="1"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="D648" s="1"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="D649" s="1"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="D650" s="1"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="D651" s="1"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="D652" s="1"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="D653" s="1"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="D654" s="1"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="D655" s="1"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="D656" s="1"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="D657" s="1"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="D658" s="1"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="D659" s="1"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="D660" s="1"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="D661" s="1"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="D662" s="1"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="D663" s="1"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="D664" s="1"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="D665" s="1"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="D666" s="1"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="D667" s="1"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="D668" s="1"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="D669" s="1"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="D670" s="1"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="D671" s="1"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="D672" s="1"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="D673" s="1"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="D674" s="1"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="D675" s="1"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="D676" s="1"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="D677" s="1"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="D678" s="1"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="D679" s="1"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="D680" s="1"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="D681" s="1"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="D682" s="1"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="D683" s="1"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="D684" s="1"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="D685" s="1"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="D686" s="1"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="D687" s="1"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="D688" s="1"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="D689" s="1"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="D690" s="1"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="D691" s="1"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="D692" s="1"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="D693" s="1"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="D694" s="1"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="D695" s="1"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="D696" s="1"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="D697" s="1"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="D698" s="1"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="D699" s="1"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="D700" s="1"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="D701" s="1"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="D702" s="1"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="D703" s="1"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="D704" s="1"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="D705" s="1"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="D706" s="1"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="D707" s="1"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="D708" s="1"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="D709" s="1"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="D710" s="1"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="D711" s="1"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="D712" s="1"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="D713" s="1"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="D714" s="1"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="D715" s="1"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="D716" s="1"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="D717" s="1"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="D718" s="1"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="D719" s="1"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="D720" s="1"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="D721" s="1"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="D722" s="1"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="D723" s="1"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="D724" s="1"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="D725" s="1"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="D726" s="1"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="D727" s="1"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="D728" s="1"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="D729" s="1"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="D730" s="1"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="D731" s="1"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="D732" s="1"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="D733" s="1"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="D734" s="1"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="D735" s="1"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="D736" s="1"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="D737" s="1"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="D738" s="1"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="D739" s="1"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="D740" s="1"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="D741" s="1"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="D742" s="1"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="D743" s="1"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="D744" s="1"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="D745" s="1"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="D746" s="1"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="D747" s="1"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="D748" s="1"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="D749" s="1"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="D750" s="1"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="D751" s="1"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="D752" s="1"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="D753" s="1"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="D754" s="1"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="D755" s="1"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="D756" s="1"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="D757" s="1"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="D758" s="1"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="D759" s="1"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="D760" s="1"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="D761" s="1"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="D762" s="1"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="D763" s="1"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="D764" s="1"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="D765" s="1"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="D766" s="1"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="D767" s="1"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="D768" s="1"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="D769" s="1"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="D770" s="1"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="D771" s="1"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="D772" s="1"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="D773" s="1"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="D774" s="1"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="D775" s="1"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="D776" s="1"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="D777" s="1"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="D778" s="1"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="D779" s="1"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="D780" s="1"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="D781" s="1"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="D782" s="1"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="D783" s="1"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="D784" s="1"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="D785" s="1"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="D786" s="1"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="D787" s="1"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="D788" s="1"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="D789" s="1"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="D790" s="1"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="D791" s="1"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="D792" s="1"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="D793" s="1"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="D794" s="1"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="D795" s="1"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="D796" s="1"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="D797" s="1"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="D798" s="1"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="D799" s="1"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="D800" s="1"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="D801" s="1"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="D802" s="1"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="D803" s="1"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="D804" s="1"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="D805" s="1"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="D806" s="1"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="D807" s="1"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="D808" s="1"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="D809" s="1"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="D810" s="1"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="D811" s="1"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="D812" s="1"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="D813" s="1"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="D814" s="1"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="D815" s="1"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="D816" s="1"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="D817" s="1"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="D818" s="1"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="D819" s="1"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="D820" s="1"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="D821" s="1"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="D822" s="1"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="D823" s="1"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="D824" s="1"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="D825" s="1"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="D826" s="1"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="D827" s="1"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="D828" s="1"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="D829" s="1"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="D830" s="1"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="D831" s="1"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="D832" s="1"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="D833" s="1"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="D834" s="1"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="D835" s="1"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="D836" s="1"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="D837" s="1"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="D838" s="1"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="D839" s="1"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="D840" s="1"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="D841" s="1"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="D842" s="1"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="D843" s="1"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="D844" s="1"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="D845" s="1"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="D846" s="1"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="D847" s="1"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="D848" s="1"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="D849" s="1"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="D850" s="1"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="D851" s="1"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="D852" s="1"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="D853" s="1"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="D854" s="1"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="D855" s="1"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="D856" s="1"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="D857" s="1"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="D858" s="1"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="D859" s="1"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="D860" s="1"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="D861" s="1"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="D862" s="1"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="D863" s="1"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="D864" s="1"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="D865" s="1"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="D866" s="1"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="D867" s="1"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="D868" s="1"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="D869" s="1"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="D870" s="1"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="D871" s="1"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="D872" s="1"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="D873" s="1"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="D874" s="1"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="D875" s="1"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="D876" s="1"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="D877" s="1"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="D878" s="1"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="D879" s="1"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="D880" s="1"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="D881" s="1"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="D882" s="1"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="D883" s="1"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="D884" s="1"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="D885" s="1"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="D886" s="1"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="D887" s="1"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="D888" s="1"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="D889" s="1"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="D890" s="1"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="D891" s="1"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="D892" s="1"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="D893" s="1"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="D894" s="1"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="D895" s="1"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="D896" s="1"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="D897" s="1"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="D898" s="1"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="D899" s="1"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="D900" s="1"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="D901" s="1"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="D902" s="1"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="D903" s="1"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="D904" s="1"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="D905" s="1"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="D906" s="1"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="D907" s="1"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="D908" s="1"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="D909" s="1"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="D910" s="1"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="D911" s="1"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="D912" s="1"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="D913" s="1"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="D914" s="1"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="D915" s="1"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="D916" s="1"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="D917" s="1"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="D918" s="1"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="D919" s="1"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="D920" s="1"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="D921" s="1"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="D922" s="1"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="D923" s="1"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="D924" s="1"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="D925" s="1"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="D926" s="1"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="D927" s="1"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="D928" s="1"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="D929" s="1"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="D930" s="1"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="D931" s="1"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="D932" s="1"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="D933" s="1"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="D934" s="1"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="D935" s="1"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="D936" s="1"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="D937" s="1"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="D938" s="1"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="D939" s="1"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="D940" s="1"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="D941" s="1"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="D942" s="1"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="D943" s="1"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="D944" s="1"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="D945" s="1"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="D946" s="1"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="D947" s="1"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="D948" s="1"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="D949" s="1"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="D950" s="1"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="D951" s="1"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="D952" s="1"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="D953" s="1"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="D954" s="1"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="D955" s="1"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="D956" s="1"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="D957" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="I4:I7 I11:I17">
+      <formula1>"Critical,High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="H4:H7 H11:H17">
+      <formula1>"NotTested,Pass,Fail,Blocked"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C4"/>
+    <hyperlink r:id="rId2" ref="C5"/>
+    <hyperlink r:id="rId3" ref="C6"/>
+    <hyperlink r:id="rId4" ref="C7"/>
+  </hyperlinks>
+  <drawing r:id="rId5"/>
+  <tableParts count="2">
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+  </tableParts>
 </worksheet>
 </file>